--- a/timesv4.xlsx
+++ b/timesv4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\install\SemLink\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian Leprevost\Documents\SemLink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D188997C-5352-4B6D-BB12-3B964D4F83ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C001A425-0660-467F-9935-BE5428FC2703}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="15564" windowHeight="11496" activeTab="5"/>
+    <workbookView xWindow="770" yWindow="770" windowWidth="15569" windowHeight="11491" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRE1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="INF2" sheetId="8" r:id="rId6"/>
     <sheet name="Feuil2" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,48 +643,48 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -995,19 +995,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="L36" sqref="B36:L36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>5.6</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3.08</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3.08</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.68</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1.96</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.68</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4.4800000000000004</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.68</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.68</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.68</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1.68</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.68</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3.92</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.68</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2.52</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2.2400000000000002</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3.08</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1.68</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3.36</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>85.08</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>153.48000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>151.48000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>54.100000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -2083,12 +2083,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>15.260000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2149,8 +2149,12 @@
         <f>L31+L29+L25</f>
         <v>153.48000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N39" s="1">
+        <f>(SUM(B39:L39))/60</f>
+        <v>15.449333333333334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -2179,37 +2183,37 @@
         <v>2.2800000000000296</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -2220,19 +2224,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -2331,7 +2335,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.95999999999999</v>
       </c>
@@ -2369,7 +2373,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.6799999999999899</v>
       </c>
@@ -2407,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.95999999999999</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.6799999999999899</v>
       </c>
@@ -2483,7 +2487,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2.8</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.6799999999999899</v>
       </c>
@@ -2559,7 +2563,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.6799999999999899</v>
       </c>
@@ -2597,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.6799999999999899</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5.3199999999999896</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.6799999999999899</v>
       </c>
@@ -2711,7 +2715,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>4.4799999999999898</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.6799999999999899</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1.6799999999999899</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.6799999999999899</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1.6799999999999899</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1.6799999999999899</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5.0399999999999903</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1.6799999999999899</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5.8799999999999901</v>
       </c>
@@ -3053,7 +3057,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>85.639999999999816</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -3121,7 +3125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>154.03999999999982</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>152.03999999999982</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>54.29999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -3308,12 +3312,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>15.259999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -3374,8 +3378,12 @@
         <f>L31+L29+L25</f>
         <v>154.03999999999982</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N39" s="1">
+        <f>(SUM(B39:L39))/60</f>
+        <v>15.449333333333318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -3404,37 +3412,37 @@
         <v>2.8399999999998329</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>14</v>
       </c>
@@ -3445,19 +3453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="N67" sqref="N67:N68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -3526,7 +3534,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3.08</v>
       </c>
@@ -3552,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.68</v>
       </c>
@@ -3578,7 +3586,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5.32</v>
       </c>
@@ -3604,7 +3612,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.84</v>
       </c>
@@ -3630,7 +3638,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.56000000000000005</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.84</v>
       </c>
@@ -3682,7 +3690,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.56000000000000005</v>
       </c>
@@ -3708,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3.36</v>
       </c>
@@ -3734,7 +3742,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1.1200000000000001</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.56000000000000005</v>
       </c>
@@ -3786,7 +3794,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2.8</v>
       </c>
@@ -3812,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.56000000000000005</v>
       </c>
@@ -3838,7 +3846,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.56000000000000005</v>
       </c>
@@ -3864,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.4</v>
       </c>
@@ -3890,7 +3898,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.84</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.56000000000000005</v>
       </c>
@@ -3942,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>6.72</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.56000000000000005</v>
       </c>
@@ -3994,7 +4002,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.84</v>
       </c>
@@ -4020,7 +4028,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.56000000000000005</v>
       </c>
@@ -4046,7 +4054,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>3.92</v>
       </c>
@@ -4072,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.84</v>
       </c>
@@ -4098,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>5.04</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.84</v>
       </c>
@@ -4150,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5.04</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.84</v>
       </c>
@@ -4202,7 +4210,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2.52</v>
       </c>
@@ -4228,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.84</v>
       </c>
@@ -4254,7 +4262,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>6.16</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2.2400000000000002</v>
       </c>
@@ -4306,7 +4314,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5.32</v>
       </c>
@@ -4332,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.56000000000000005</v>
       </c>
@@ -4358,7 +4366,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.56000000000000005</v>
       </c>
@@ -4384,7 +4392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.84</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.84</v>
       </c>
@@ -4436,7 +4444,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2.8</v>
       </c>
@@ -4462,7 +4470,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>0.84</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1.68</v>
       </c>
@@ -4514,7 +4522,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>4.4800000000000004</v>
       </c>
@@ -4540,7 +4548,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3.92</v>
       </c>
@@ -4566,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.56000000000000005</v>
       </c>
@@ -4592,7 +4600,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0.56000000000000005</v>
       </c>
@@ -4618,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.56000000000000005</v>
       </c>
@@ -4644,7 +4652,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.56000000000000005</v>
       </c>
@@ -4670,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>0.84</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1.1200000000000001</v>
       </c>
@@ -4722,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>7</v>
       </c>
@@ -4748,7 +4756,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -4765,7 +4773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4773,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4794,7 +4802,7 @@
         <v>165.40000000000009</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -4802,7 +4810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -4810,7 +4818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -4852,7 +4860,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -4873,7 +4881,7 @@
         <v>317.80000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -4894,7 +4902,7 @@
         <v>315.80000000000007</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -4915,7 +4923,7 @@
         <v>112.78571428571432</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -4943,12 +4951,12 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4973,7 +4981,7 @@
         <v>20.95333333333333</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -4993,8 +5001,12 @@
         <f>H60+H58+H54</f>
         <v>317.80000000000007</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N68" s="1">
+        <f>(SUM(B68:L68))/60</f>
+        <v>21.110000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -5015,22 +5027,22 @@
         <v>1.4000000000000909</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -5041,19 +5053,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N67" sqref="N67:N68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5070,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5096,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -5122,7 +5134,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.84</v>
       </c>
@@ -5148,7 +5160,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.96</v>
       </c>
@@ -5174,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.84</v>
       </c>
@@ -5200,7 +5212,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3.64</v>
       </c>
@@ -5226,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6.72</v>
       </c>
@@ -5252,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1.1200000000000001</v>
       </c>
@@ -5278,7 +5290,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6.72</v>
       </c>
@@ -5304,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.84</v>
       </c>
@@ -5330,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.84</v>
       </c>
@@ -5356,7 +5368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.84</v>
       </c>
@@ -5382,7 +5394,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7</v>
       </c>
@@ -5408,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.56000000000000005</v>
       </c>
@@ -5434,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>7.28</v>
       </c>
@@ -5460,7 +5472,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4.4800000000000004</v>
       </c>
@@ -5486,7 +5498,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2.8</v>
       </c>
@@ -5512,7 +5524,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.84</v>
       </c>
@@ -5538,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>4.4800000000000004</v>
       </c>
@@ -5564,7 +5576,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.84</v>
       </c>
@@ -5590,7 +5602,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1.96</v>
       </c>
@@ -5616,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1.1200000000000001</v>
       </c>
@@ -5642,7 +5654,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.84</v>
       </c>
@@ -5668,7 +5680,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.84</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.84</v>
       </c>
@@ -5720,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.84</v>
       </c>
@@ -5746,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.56000000000000005</v>
       </c>
@@ -5772,7 +5784,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1.96</v>
       </c>
@@ -5798,7 +5810,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1.1200000000000001</v>
       </c>
@@ -5824,7 +5836,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>3.92</v>
       </c>
@@ -5850,7 +5862,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.68</v>
       </c>
@@ -5876,7 +5888,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.84</v>
       </c>
@@ -5902,7 +5914,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5.04</v>
       </c>
@@ -5928,7 +5940,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.84</v>
       </c>
@@ -5954,7 +5966,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.84</v>
       </c>
@@ -5980,7 +5992,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.96</v>
       </c>
@@ -6006,7 +6018,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.84</v>
       </c>
@@ -6032,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1.1200000000000001</v>
       </c>
@@ -6058,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2.2400000000000002</v>
       </c>
@@ -6084,7 +6096,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>0.84</v>
       </c>
@@ -6110,7 +6122,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3.36</v>
       </c>
@@ -6136,7 +6148,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3.08</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>0.84</v>
       </c>
@@ -6188,7 +6200,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3.08</v>
       </c>
@@ -6214,7 +6226,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.84</v>
       </c>
@@ -6240,7 +6252,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.84</v>
       </c>
@@ -6266,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2.52</v>
       </c>
@@ -6292,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1.1200000000000001</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.84</v>
       </c>
@@ -6344,7 +6356,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -6361,7 +6373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -6369,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -6390,7 +6402,7 @@
         <v>164.56000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -6398,7 +6410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -6406,7 +6418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -6448,7 +6460,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -6469,7 +6481,7 @@
         <v>316.96000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -6490,7 +6502,7 @@
         <v>314.96000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -6511,7 +6523,7 @@
         <v>112.48571428571431</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -6539,12 +6551,12 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -6569,7 +6581,7 @@
         <v>20.95333333333333</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -6589,8 +6601,12 @@
         <f>H60+H58+H54</f>
         <v>316.96000000000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N68" s="1">
+        <f>(SUM(B68:L68))/60</f>
+        <v>21.110000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -6611,22 +6627,22 @@
         <v>3.3600000000000705</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -6637,19 +6653,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51:N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6666,7 +6682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -6692,7 +6708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -6718,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3.92</v>
       </c>
@@ -6744,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.84</v>
       </c>
@@ -6770,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3.36</v>
       </c>
@@ -6796,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.68</v>
       </c>
@@ -6822,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2.2400000000000002</v>
       </c>
@@ -6848,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.84</v>
       </c>
@@ -6874,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3.36</v>
       </c>
@@ -6900,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.84</v>
       </c>
@@ -6926,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.84</v>
       </c>
@@ -6952,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.68</v>
       </c>
@@ -6978,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.56000000000000005</v>
       </c>
@@ -7004,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.84</v>
       </c>
@@ -7030,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>3.92</v>
       </c>
@@ -7056,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.56000000000000005</v>
       </c>
@@ -7082,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.56000000000000005</v>
       </c>
@@ -7108,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.84</v>
       </c>
@@ -7134,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3.64</v>
       </c>
@@ -7160,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.56000000000000005</v>
       </c>
@@ -7186,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3.92</v>
       </c>
@@ -7212,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.84</v>
       </c>
@@ -7238,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.56000000000000005</v>
       </c>
@@ -7264,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1.68</v>
       </c>
@@ -7290,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>5.32</v>
       </c>
@@ -7316,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.84</v>
       </c>
@@ -7342,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2.8</v>
       </c>
@@ -7368,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.56000000000000005</v>
       </c>
@@ -7394,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>4.4800000000000004</v>
       </c>
@@ -7420,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2.8</v>
       </c>
@@ -7446,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.84</v>
       </c>
@@ -7472,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.56000000000000005</v>
       </c>
@@ -7498,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.96</v>
       </c>
@@ -7524,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7541,7 +7557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -7549,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -7570,7 +7586,7 @@
         <v>111.32000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -7578,7 +7594,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -7586,7 +7602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -7607,7 +7623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -7628,7 +7644,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -7649,7 +7665,7 @@
         <v>167.72000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -7670,7 +7686,7 @@
         <v>165.72000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -7691,7 +7707,7 @@
         <v>59.185714285714312</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -7719,12 +7735,12 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -7749,7 +7765,7 @@
         <v>10.873333333333331</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -7769,8 +7785,12 @@
         <f>H44+H42+H38</f>
         <v>167.72000000000006</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N52" s="1">
+        <f>(SUM(B52:L52))/60</f>
+        <v>11.081333333333335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -7791,22 +7811,22 @@
         <v>2.5200000000000671</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>11</v>
       </c>
@@ -7817,19 +7837,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51:N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7846,7 +7866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -7872,7 +7892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -7898,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.84</v>
       </c>
@@ -7924,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3.36</v>
       </c>
@@ -7950,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.56000000000000005</v>
       </c>
@@ -7976,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.56000000000000005</v>
       </c>
@@ -8002,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5.04</v>
       </c>
@@ -8028,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.56000000000000005</v>
       </c>
@@ -8054,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7.28</v>
       </c>
@@ -8080,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3.36</v>
       </c>
@@ -8106,7 +8126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3.08</v>
       </c>
@@ -8132,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.84</v>
       </c>
@@ -8158,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.56000000000000005</v>
       </c>
@@ -8184,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.56000000000000005</v>
       </c>
@@ -8210,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.84</v>
       </c>
@@ -8236,7 +8256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.96</v>
       </c>
@@ -8262,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>7.28</v>
       </c>
@@ -8288,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0.56000000000000005</v>
       </c>
@@ -8314,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.84</v>
       </c>
@@ -8340,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2.2400000000000002</v>
       </c>
@@ -8366,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.84</v>
       </c>
@@ -8392,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.56000000000000005</v>
       </c>
@@ -8418,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1.1200000000000001</v>
       </c>
@@ -8444,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.84</v>
       </c>
@@ -8470,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>4.76</v>
       </c>
@@ -8496,7 +8516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.56000000000000005</v>
       </c>
@@ -8522,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.84</v>
       </c>
@@ -8548,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.56000000000000005</v>
       </c>
@@ -8574,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>3.08</v>
       </c>
@@ -8600,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.84</v>
       </c>
@@ -8626,7 +8646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.84</v>
       </c>
@@ -8652,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.56000000000000005</v>
       </c>
@@ -8678,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>3.64</v>
       </c>
@@ -8704,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8721,7 +8741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -8729,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -8750,7 +8770,7 @@
         <v>109.36000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -8758,7 +8778,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -8766,7 +8786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -8787,7 +8807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -8808,7 +8828,7 @@
         <v>8.3999999999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -8829,7 +8849,7 @@
         <v>165.76000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -8850,7 +8870,7 @@
         <v>163.76000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -8871,7 +8891,7 @@
         <v>58.485714285714295</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
@@ -8899,12 +8919,12 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -8929,7 +8949,7 @@
         <v>10.919999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -8949,8 +8969,12 @@
         <f>H44+H42+H38</f>
         <v>165.76000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N52" s="1">
+        <f>(SUM(B52:L52))/60</f>
+        <v>11.081333333333335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -8971,22 +8995,22 @@
         <v>3.3600000000000421</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>11</v>
       </c>
@@ -8997,16 +9021,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -9026,7 +9050,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -9046,7 +9070,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -9066,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9086,7 +9110,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -9106,7 +9130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -9126,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -9146,7 +9170,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -9166,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -9186,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -9206,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -9226,7 +9250,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -9246,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -9266,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -9286,7 +9310,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -9306,7 +9330,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -9326,7 +9350,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -9346,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -9366,7 +9390,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -9386,7 +9410,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -9406,7 +9430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -9426,7 +9450,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -9446,7 +9470,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -9466,7 +9490,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -9486,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -9506,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -9526,7 +9550,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -9546,7 +9570,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -9566,7 +9590,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -9586,7 +9610,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -9606,7 +9630,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9626,7 +9650,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -9646,7 +9670,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -9666,7 +9690,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -9686,7 +9710,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -9706,7 +9730,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -9726,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -9746,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -9766,7 +9790,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -9786,7 +9810,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -9806,7 +9830,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -9826,7 +9850,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -9846,7 +9870,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -9866,7 +9890,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -9886,7 +9910,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -9906,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -9926,7 +9950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -9946,7 +9970,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
